--- a/考勤/新表单.xlsx
+++ b/考勤/新表单.xlsx
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12964" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12945" uniqueCount="421">
   <si>
     <t xml:space="preserve">本月标准工作日天数</t>
   </si>
@@ -3783,64 +3783,54 @@
         <v>402</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T5" s="35" t="s">
-        <v>400</v>
-      </c>
-      <c r="U5" s="35" t="s">
-        <v>400</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
       <c r="V5" s="15" t="s">
-        <v>402</v>
+        <v>48</v>
       </c>
       <c r="W5" s="15" t="s">
-        <v>402</v>
+        <v>48</v>
       </c>
       <c r="X5" s="15" t="s">
-        <v>402</v>
+        <v>48</v>
       </c>
       <c r="Y5" s="15" t="s">
-        <v>402</v>
+        <v>48</v>
       </c>
       <c r="Z5" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="AA5" s="35" t="s">
-        <v>400</v>
-      </c>
-      <c r="AB5" s="35" t="s">
-        <v>400</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
       <c r="AC5" s="15" t="s">
-        <v>402</v>
+        <v>48</v>
       </c>
       <c r="AD5" s="15" t="s">
-        <v>402</v>
+        <v>48</v>
       </c>
       <c r="AE5" s="15" t="s">
-        <v>402</v>
+        <v>48</v>
       </c>
       <c r="AF5" s="15" t="s">
-        <v>402</v>
+        <v>48</v>
       </c>
       <c r="AG5" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="AH5" s="35" t="s">
-        <v>400</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="AH5" s="35"/>
       <c r="AI5" s="15" t="s">
-        <v>402</v>
+        <v>48</v>
       </c>
       <c r="AJ5" s="15" t="s">
-        <v>402</v>
+        <v>48</v>
       </c>
       <c r="AK5" s="15" t="s">
-        <v>402</v>
+        <v>48</v>
       </c>
       <c r="AL5" s="15" t="s">
-        <v>402</v>
+        <v>48</v>
       </c>
       <c r="AM5" s="15"/>
       <c r="AN5" s="38"/>
